--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H2">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I2">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J2">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N2">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O2">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P2">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q2">
-        <v>14.76847974691837</v>
+        <v>13.430031019216</v>
       </c>
       <c r="R2">
-        <v>14.76847974691837</v>
+        <v>120.870279172944</v>
       </c>
       <c r="S2">
-        <v>0.0244216090099619</v>
+        <v>0.01008525034257724</v>
       </c>
       <c r="T2">
-        <v>0.0244216090099619</v>
+        <v>0.01246374993059609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H3">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I3">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J3">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N3">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P3">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q3">
-        <v>41.48500968543731</v>
+        <v>31.26329666064401</v>
       </c>
       <c r="R3">
-        <v>41.48500968543731</v>
+        <v>281.369669945796</v>
       </c>
       <c r="S3">
-        <v>0.06860087860591305</v>
+        <v>0.02347709941292897</v>
       </c>
       <c r="T3">
-        <v>0.06860087860591305</v>
+        <v>0.02901392491400616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H4">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I4">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J4">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N4">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O4">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P4">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q4">
-        <v>5.002696414078808</v>
+        <v>4.315659483888001</v>
       </c>
       <c r="R4">
-        <v>5.002696414078808</v>
+        <v>38.84093535499201</v>
       </c>
       <c r="S4">
-        <v>0.008272611529000756</v>
+        <v>0.003240834382739124</v>
       </c>
       <c r="T4">
-        <v>0.008272611529000756</v>
+        <v>0.004005150882810504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H5">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I5">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J5">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N5">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O5">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P5">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q5">
-        <v>5.165611245309863</v>
+        <v>3.609353275504</v>
       </c>
       <c r="R5">
-        <v>5.165611245309863</v>
+        <v>32.484179479536</v>
       </c>
       <c r="S5">
-        <v>0.008542012467921295</v>
+        <v>0.002710435389626076</v>
       </c>
       <c r="T5">
-        <v>0.008542012467921295</v>
+        <v>0.003349662898968187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H6">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I6">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J6">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N6">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O6">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P6">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q6">
-        <v>10.63690764144933</v>
+        <v>7.634903505546002</v>
       </c>
       <c r="R6">
-        <v>10.63690764144933</v>
+        <v>45.80942103327601</v>
       </c>
       <c r="S6">
-        <v>0.01758951523421061</v>
+        <v>0.005733412907585896</v>
       </c>
       <c r="T6">
-        <v>0.01758951523421061</v>
+        <v>0.004723718453625825</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.42542255911418</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H7">
-        <v>2.42542255911418</v>
+        <v>1.35167</v>
       </c>
       <c r="I7">
-        <v>0.8725733731529924</v>
+        <v>0.08262548883273427</v>
       </c>
       <c r="J7">
-        <v>0.8725733731529924</v>
+        <v>0.09779885114730792</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N7">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O7">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P7">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q7">
-        <v>101.1294303864941</v>
+        <v>24.52454488776445</v>
       </c>
       <c r="R7">
-        <v>101.1294303864941</v>
+        <v>220.72090398988</v>
       </c>
       <c r="S7">
-        <v>0.1672307136971537</v>
+        <v>0.01841664955032367</v>
       </c>
       <c r="T7">
-        <v>0.1672307136971537</v>
+        <v>0.02276002149253551</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.42542255911418</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H8">
-        <v>2.42542255911418</v>
+        <v>1.35167</v>
       </c>
       <c r="I8">
-        <v>0.8725733731529924</v>
+        <v>0.08262548883273427</v>
       </c>
       <c r="J8">
-        <v>0.8725733731529924</v>
+        <v>0.09779885114730792</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N8">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P8">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q8">
-        <v>284.0749671571226</v>
+        <v>57.08982512374111</v>
       </c>
       <c r="R8">
-        <v>284.0749671571226</v>
+        <v>513.80842611367</v>
       </c>
       <c r="S8">
-        <v>0.4697550388608297</v>
+        <v>0.04287147048008055</v>
       </c>
       <c r="T8">
-        <v>0.4697550388608297</v>
+        <v>0.05298225319849702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.42542255911418</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H9">
-        <v>2.42542255911418</v>
+        <v>1.35167</v>
       </c>
       <c r="I9">
-        <v>0.8725733731529924</v>
+        <v>0.08262548883273427</v>
       </c>
       <c r="J9">
-        <v>0.8725733731529924</v>
+        <v>0.09779885114730792</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N9">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O9">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P9">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q9">
-        <v>34.25673105303293</v>
+        <v>7.88081461476</v>
       </c>
       <c r="R9">
-        <v>34.25673105303293</v>
+        <v>70.92733153284</v>
       </c>
       <c r="S9">
-        <v>0.05664797637083523</v>
+        <v>0.005918079279159832</v>
       </c>
       <c r="T9">
-        <v>0.05664797637083523</v>
+        <v>0.007313795661917213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.42542255911418</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H10">
-        <v>2.42542255911418</v>
+        <v>1.35167</v>
       </c>
       <c r="I10">
-        <v>0.8725733731529924</v>
+        <v>0.08262548883273427</v>
       </c>
       <c r="J10">
-        <v>0.8725733731529924</v>
+        <v>0.09779885114730792</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N10">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O10">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P10">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q10">
-        <v>35.37231534919898</v>
+        <v>6.591030675524443</v>
       </c>
       <c r="R10">
-        <v>35.37231534919898</v>
+        <v>59.31927607971999</v>
       </c>
       <c r="S10">
-        <v>0.0584927406231819</v>
+        <v>0.004949519050489164</v>
       </c>
       <c r="T10">
-        <v>0.0584927406231819</v>
+        <v>0.00611681075100153</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4505566666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.35167</v>
+      </c>
+      <c r="I11">
+        <v>0.08262548883273427</v>
+      </c>
+      <c r="J11">
+        <v>0.09779885114730792</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>30.9441155</v>
+      </c>
+      <c r="N11">
+        <v>61.888231</v>
+      </c>
+      <c r="O11">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P11">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q11">
+        <v>13.94207753262833</v>
+      </c>
+      <c r="R11">
+        <v>83.65246519577001</v>
+      </c>
+      <c r="S11">
+        <v>0.01046977047268106</v>
+      </c>
+      <c r="T11">
+        <v>0.00862597004335665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.34427</v>
+      </c>
+      <c r="I12">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J12">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.43165466666667</v>
+      </c>
+      <c r="N12">
+        <v>163.294964</v>
+      </c>
+      <c r="O12">
+        <v>0.2228930782800698</v>
+      </c>
+      <c r="P12">
+        <v>0.2327227899462091</v>
+      </c>
+      <c r="Q12">
+        <v>6.246395250697778</v>
+      </c>
+      <c r="R12">
+        <v>56.21755725628</v>
+      </c>
+      <c r="S12">
+        <v>0.004690715885304794</v>
+      </c>
+      <c r="T12">
+        <v>0.005796971597531351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.34427</v>
+      </c>
+      <c r="I13">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J13">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>126.7095336666667</v>
+      </c>
+      <c r="N13">
+        <v>380.128601</v>
+      </c>
+      <c r="O13">
+        <v>0.5188649542136915</v>
+      </c>
+      <c r="P13">
+        <v>0.541747194133123</v>
+      </c>
+      <c r="Q13">
+        <v>14.54076371847445</v>
+      </c>
+      <c r="R13">
+        <v>130.86687346627</v>
+      </c>
+      <c r="S13">
+        <v>0.01091935246190071</v>
+      </c>
+      <c r="T13">
+        <v>0.01349456620968622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.34427</v>
+      </c>
+      <c r="I14">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J14">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.491284</v>
+      </c>
+      <c r="N14">
+        <v>52.473852</v>
+      </c>
+      <c r="O14">
+        <v>0.07162534664261168</v>
+      </c>
+      <c r="P14">
+        <v>0.07478406521259567</v>
+      </c>
+      <c r="Q14">
+        <v>2.00724144756</v>
+      </c>
+      <c r="R14">
+        <v>18.06517302804</v>
+      </c>
+      <c r="S14">
+        <v>0.001507333264359167</v>
+      </c>
+      <c r="T14">
+        <v>0.001862821866674735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.34427</v>
+      </c>
+      <c r="I15">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J15">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.62863866666667</v>
+      </c>
+      <c r="N15">
+        <v>43.88591599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.05990305316690945</v>
+      </c>
+      <c r="P15">
+        <v>0.06254481192001105</v>
+      </c>
+      <c r="Q15">
+        <v>1.678733811257778</v>
+      </c>
+      <c r="R15">
+        <v>15.10860430132</v>
+      </c>
+      <c r="S15">
+        <v>0.001260641224198143</v>
+      </c>
+      <c r="T15">
+        <v>0.001557950118924957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.34427</v>
+      </c>
+      <c r="I16">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J16">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.9441155</v>
+      </c>
+      <c r="N16">
+        <v>61.888231</v>
+      </c>
+      <c r="O16">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P16">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q16">
+        <v>3.551043547728334</v>
+      </c>
+      <c r="R16">
+        <v>21.30626128637</v>
+      </c>
+      <c r="S16">
+        <v>0.002666647836106378</v>
+      </c>
+      <c r="T16">
+        <v>0.002197032342825094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H17">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J17">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>54.43165466666667</v>
+      </c>
+      <c r="N17">
+        <v>163.294964</v>
+      </c>
+      <c r="O17">
+        <v>0.2228930782800698</v>
+      </c>
+      <c r="P17">
+        <v>0.2327227899462091</v>
+      </c>
+      <c r="Q17">
+        <v>114.4630565265911</v>
+      </c>
+      <c r="R17">
+        <v>1030.16750873932</v>
+      </c>
+      <c r="S17">
+        <v>0.08595576424175903</v>
+      </c>
+      <c r="T17">
+        <v>0.1062275217978163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.42542255911418</v>
-      </c>
-      <c r="H11">
-        <v>2.42542255911418</v>
-      </c>
-      <c r="I11">
-        <v>0.8725733731529924</v>
-      </c>
-      <c r="J11">
-        <v>0.8725733731529924</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>30.0309966128071</v>
-      </c>
-      <c r="N11">
-        <v>30.0309966128071</v>
-      </c>
-      <c r="O11">
-        <v>0.1380364188352026</v>
-      </c>
-      <c r="P11">
-        <v>0.1380364188352026</v>
-      </c>
-      <c r="Q11">
-        <v>72.83785665738387</v>
-      </c>
-      <c r="R11">
-        <v>72.83785665738387</v>
-      </c>
-      <c r="S11">
-        <v>0.120446903600992</v>
-      </c>
-      <c r="T11">
-        <v>0.120446903600992</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H18">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J18">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>126.7095336666667</v>
+      </c>
+      <c r="N18">
+        <v>380.128601</v>
+      </c>
+      <c r="O18">
+        <v>0.5188649542136915</v>
+      </c>
+      <c r="P18">
+        <v>0.541747194133123</v>
+      </c>
+      <c r="Q18">
+        <v>266.4545217918478</v>
+      </c>
+      <c r="R18">
+        <v>2398.090696126631</v>
+      </c>
+      <c r="S18">
+        <v>0.2000933991393984</v>
+      </c>
+      <c r="T18">
+        <v>0.2472833102722073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J19">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.491284</v>
+      </c>
+      <c r="N19">
+        <v>52.473852</v>
+      </c>
+      <c r="O19">
+        <v>0.07162534664261168</v>
+      </c>
+      <c r="P19">
+        <v>0.07478406521259567</v>
+      </c>
+      <c r="Q19">
+        <v>36.78201299364</v>
+      </c>
+      <c r="R19">
+        <v>331.03811694276</v>
+      </c>
+      <c r="S19">
+        <v>0.02762136651911051</v>
+      </c>
+      <c r="T19">
+        <v>0.03413557356946651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H20">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J20">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.62863866666667</v>
+      </c>
+      <c r="N20">
+        <v>43.88591599999999</v>
+      </c>
+      <c r="O20">
+        <v>0.05990305316690945</v>
+      </c>
+      <c r="P20">
+        <v>0.06254481192001105</v>
+      </c>
+      <c r="Q20">
+        <v>30.76222291723111</v>
+      </c>
+      <c r="R20">
+        <v>276.86000625508</v>
+      </c>
+      <c r="S20">
+        <v>0.02310081925875951</v>
+      </c>
+      <c r="T20">
+        <v>0.02854890306664408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J21">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30.9441155</v>
+      </c>
+      <c r="N21">
+        <v>61.888231</v>
+      </c>
+      <c r="O21">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P21">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q21">
+        <v>65.07165845558835</v>
+      </c>
+      <c r="R21">
+        <v>390.4299507335301</v>
+      </c>
+      <c r="S21">
+        <v>0.04886540952826496</v>
+      </c>
+      <c r="T21">
+        <v>0.04025986623556125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.5380765</v>
+      </c>
+      <c r="H22">
+        <v>5.076153</v>
+      </c>
+      <c r="I22">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J22">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>54.43165466666667</v>
+      </c>
+      <c r="N22">
+        <v>163.294964</v>
+      </c>
+      <c r="O22">
+        <v>0.2228930782800698</v>
+      </c>
+      <c r="P22">
+        <v>0.2327227899462091</v>
+      </c>
+      <c r="Q22">
+        <v>138.151703565582</v>
+      </c>
+      <c r="R22">
+        <v>828.910221393492</v>
+      </c>
+      <c r="S22">
+        <v>0.1037446982601051</v>
+      </c>
+      <c r="T22">
+        <v>0.08547452512772985</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.5380765</v>
+      </c>
+      <c r="H23">
+        <v>5.076153</v>
+      </c>
+      <c r="I23">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J23">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>126.7095336666667</v>
+      </c>
+      <c r="N23">
+        <v>380.128601</v>
+      </c>
+      <c r="O23">
+        <v>0.5188649542136915</v>
+      </c>
+      <c r="P23">
+        <v>0.541747194133123</v>
+      </c>
+      <c r="Q23">
+        <v>321.5984897253255</v>
+      </c>
+      <c r="R23">
+        <v>1929.590938351953</v>
+      </c>
+      <c r="S23">
+        <v>0.241503632719383</v>
+      </c>
+      <c r="T23">
+        <v>0.1989731395387264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.5380765</v>
+      </c>
+      <c r="H24">
+        <v>5.076153</v>
+      </c>
+      <c r="I24">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J24">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>17.491284</v>
+      </c>
+      <c r="N24">
+        <v>52.473852</v>
+      </c>
+      <c r="O24">
+        <v>0.07162534664261168</v>
+      </c>
+      <c r="P24">
+        <v>0.07478406521259567</v>
+      </c>
+      <c r="Q24">
+        <v>44.394216875226</v>
+      </c>
+      <c r="R24">
+        <v>266.365301251356</v>
+      </c>
+      <c r="S24">
+        <v>0.03333773319724306</v>
+      </c>
+      <c r="T24">
+        <v>0.02746672323172671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.5380765</v>
+      </c>
+      <c r="H25">
+        <v>5.076153</v>
+      </c>
+      <c r="I25">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J25">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.62863866666667</v>
+      </c>
+      <c r="N25">
+        <v>43.88591599999999</v>
+      </c>
+      <c r="O25">
+        <v>0.05990305316690945</v>
+      </c>
+      <c r="P25">
+        <v>0.06254481192001105</v>
+      </c>
+      <c r="Q25">
+        <v>37.12860402685799</v>
+      </c>
+      <c r="R25">
+        <v>222.771624161148</v>
+      </c>
+      <c r="S25">
+        <v>0.02788163824383657</v>
+      </c>
+      <c r="T25">
+        <v>0.0229714850844723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.5380765</v>
+      </c>
+      <c r="H26">
+        <v>5.076153</v>
+      </c>
+      <c r="I26">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J26">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.9441155</v>
+      </c>
+      <c r="N26">
+        <v>61.888231</v>
+      </c>
+      <c r="O26">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P26">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q26">
+        <v>78.53853236383576</v>
+      </c>
+      <c r="R26">
+        <v>314.154129455343</v>
+      </c>
+      <c r="S26">
+        <v>0.0589783269520793</v>
+      </c>
+      <c r="T26">
+        <v>0.03239455171269244</v>
       </c>
     </row>
   </sheetData>
